--- a/edu_zhuce.xlsx
+++ b/edu_zhuce.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +652,83 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T7vKIVOR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lavonda R Genao</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mrs.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/22/1982</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>407-22-5204</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>667  Meadowcrest Lane</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>FORT WAYNE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>46859</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>606-526-7846</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>260-417-6129</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>hmfynhv6@temporary-mail.net</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
